--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H2">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I2">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J2">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>1073.153579020302</v>
+        <v>1148.763416866407</v>
       </c>
       <c r="R2">
-        <v>4292.61431608121</v>
+        <v>4595.053667465629</v>
       </c>
       <c r="S2">
-        <v>0.02147849013299</v>
+        <v>0.02955637966989197</v>
       </c>
       <c r="T2">
-        <v>0.01162187687474316</v>
+        <v>0.01636615547625273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H3">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I3">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J3">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>4170.749212730596</v>
+        <v>3252.681382953441</v>
       </c>
       <c r="R3">
-        <v>25024.49527638357</v>
+        <v>19516.08829772065</v>
       </c>
       <c r="S3">
-        <v>0.08347490756597024</v>
+        <v>0.08368780245631834</v>
       </c>
       <c r="T3">
-        <v>0.06775162675696102</v>
+        <v>0.06951025134488524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H4">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I4">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J4">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>5740.336880426739</v>
+        <v>3324.165284226787</v>
       </c>
       <c r="R4">
-        <v>34442.02128256043</v>
+        <v>19944.99170536072</v>
       </c>
       <c r="S4">
-        <v>0.1148892119978214</v>
+        <v>0.08552700215165977</v>
       </c>
       <c r="T4">
-        <v>0.09324875266889178</v>
+        <v>0.07103787220890957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H5">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I5">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J5">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>1840.580905202173</v>
+        <v>1773.883342878489</v>
       </c>
       <c r="R5">
-        <v>7362.323620808692</v>
+        <v>7095.533371513958</v>
       </c>
       <c r="S5">
-        <v>0.03683806268199266</v>
+        <v>0.04564000629061724</v>
       </c>
       <c r="T5">
-        <v>0.01993284565829909</v>
+        <v>0.02527208836914107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H6">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I6">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J6">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>839.5131995101219</v>
+        <v>1756.867718837201</v>
       </c>
       <c r="R6">
-        <v>5037.079197060732</v>
+        <v>10541.2063130232</v>
       </c>
       <c r="S6">
-        <v>0.01680232571059793</v>
+        <v>0.04520221358491259</v>
       </c>
       <c r="T6">
-        <v>0.01363745026364546</v>
+        <v>0.03754450631288192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H7">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I7">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J7">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>5680.668024163453</v>
+        <v>4179.252462866748</v>
       </c>
       <c r="R7">
-        <v>34084.00814498071</v>
+        <v>25075.51477720049</v>
       </c>
       <c r="S7">
-        <v>0.1136949775792326</v>
+        <v>0.1075274253298977</v>
       </c>
       <c r="T7">
-        <v>0.09227946349028922</v>
+        <v>0.08931120356578638</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>21.562193</v>
       </c>
       <c r="I8">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J8">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>107.7348863956983</v>
+        <v>147.875977684002</v>
       </c>
       <c r="R8">
-        <v>646.4093183741901</v>
+        <v>887.2558661040121</v>
       </c>
       <c r="S8">
-        <v>0.002156245610755241</v>
+        <v>0.003804681169606843</v>
       </c>
       <c r="T8">
-        <v>0.001750096550879919</v>
+        <v>0.003160130110054727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>21.562193</v>
       </c>
       <c r="I9">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J9">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
         <v>418.7053944587163</v>
@@ -1013,10 +1013,10 @@
         <v>3768.348550128447</v>
       </c>
       <c r="S9">
-        <v>0.00838012364616182</v>
+        <v>0.01077281486053178</v>
       </c>
       <c r="T9">
-        <v>0.01020247328222375</v>
+        <v>0.01342168834648873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>21.562193</v>
       </c>
       <c r="I10">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J10">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>576.2777609616603</v>
+        <v>427.9072471938056</v>
       </c>
       <c r="R10">
-        <v>5186.499848654943</v>
+        <v>3851.165224744251</v>
       </c>
       <c r="S10">
-        <v>0.01153383489991829</v>
+        <v>0.01100956809371414</v>
       </c>
       <c r="T10">
-        <v>0.01404199357629907</v>
+        <v>0.01371665564630179</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>21.562193</v>
       </c>
       <c r="I11">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J11">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>184.7776297825647</v>
+        <v>228.345305721054</v>
       </c>
       <c r="R11">
-        <v>1108.665778695388</v>
+        <v>1370.071834326324</v>
       </c>
       <c r="S11">
-        <v>0.003698207391438994</v>
+        <v>0.00587506570337963</v>
       </c>
       <c r="T11">
-        <v>0.003001615385516803</v>
+        <v>0.004879770787657969</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>21.562193</v>
       </c>
       <c r="I12">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J12">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>84.27951128810533</v>
+        <v>226.1549486779366</v>
       </c>
       <c r="R12">
-        <v>758.515601592948</v>
+        <v>2035.394538101429</v>
       </c>
       <c r="S12">
-        <v>0.001686801113096361</v>
+        <v>0.005818710301189339</v>
       </c>
       <c r="T12">
-        <v>0.002053614482964466</v>
+        <v>0.007249443831731432</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>21.562193</v>
       </c>
       <c r="I13">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J13">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>570.2875489579367</v>
+        <v>537.9793914577311</v>
       </c>
       <c r="R13">
-        <v>5132.58794062143</v>
+        <v>4841.81452311958</v>
       </c>
       <c r="S13">
-        <v>0.01141394459536938</v>
+        <v>0.01384159951043364</v>
       </c>
       <c r="T13">
-        <v>0.01389603181241529</v>
+        <v>0.01724504108267768</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H14">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I14">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J14">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>473.7885970830367</v>
+        <v>605.9134117640401</v>
       </c>
       <c r="R14">
-        <v>2842.73158249822</v>
+        <v>3635.480470584241</v>
       </c>
       <c r="S14">
-        <v>0.009482579107513425</v>
+        <v>0.01558946479513475</v>
       </c>
       <c r="T14">
-        <v>0.007696446502535742</v>
+        <v>0.01294845347155179</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H15">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I15">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J15">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>1841.351934071521</v>
+        <v>1715.621550260327</v>
       </c>
       <c r="R15">
-        <v>16572.16740664369</v>
+        <v>15440.59395234294</v>
       </c>
       <c r="S15">
-        <v>0.03685349433715022</v>
+        <v>0.04414099645309282</v>
       </c>
       <c r="T15">
-        <v>0.04486769016869692</v>
+        <v>0.05499460497250491</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H16">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I16">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J16">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>2534.312153013793</v>
+        <v>1753.325618714113</v>
       </c>
       <c r="R16">
-        <v>22808.80937712413</v>
+        <v>15779.93056842702</v>
       </c>
       <c r="S16">
-        <v>0.05072265483391131</v>
+        <v>0.04511107936656124</v>
       </c>
       <c r="T16">
-        <v>0.06175285146102302</v>
+        <v>0.05620321671450456</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H17">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I17">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J17">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>812.6015343392573</v>
+        <v>935.6319086890802</v>
       </c>
       <c r="R17">
-        <v>4875.609206035544</v>
+        <v>5613.791452134481</v>
       </c>
       <c r="S17">
-        <v>0.01626370575336643</v>
+        <v>0.02407274772025238</v>
       </c>
       <c r="T17">
-        <v>0.01320028442099557</v>
+        <v>0.01999458338591401</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H18">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I18">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J18">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>370.6382653932026</v>
+        <v>926.6570452273979</v>
       </c>
       <c r="R18">
-        <v>3335.744388538824</v>
+        <v>8339.913407046581</v>
       </c>
       <c r="S18">
-        <v>0.007418090459544398</v>
+        <v>0.02384183466360012</v>
       </c>
       <c r="T18">
-        <v>0.009031235446422573</v>
+        <v>0.02970418396734208</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H19">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I19">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J19">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>2507.968837153689</v>
+        <v>2204.339972199291</v>
       </c>
       <c r="R19">
-        <v>22571.71953438321</v>
+        <v>19839.05974979362</v>
       </c>
       <c r="S19">
-        <v>0.05019541002866358</v>
+        <v>0.05671516709468656</v>
       </c>
       <c r="T19">
-        <v>0.06111095150037089</v>
+        <v>0.07066057545022537</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H20">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I20">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J20">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N20">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O20">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P20">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q20">
-        <v>51.0594860788425</v>
+        <v>94.64058443191502</v>
       </c>
       <c r="R20">
-        <v>204.23794431537</v>
+        <v>378.5623377276601</v>
       </c>
       <c r="S20">
-        <v>0.001021923319625076</v>
+        <v>0.002434994886310386</v>
       </c>
       <c r="T20">
-        <v>0.0005529563261930317</v>
+        <v>0.001348321592100517</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H21">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I21">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J21">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P21">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q21">
-        <v>198.4397345626635</v>
+        <v>267.9713355542225</v>
       </c>
       <c r="R21">
-        <v>1190.638407375981</v>
+        <v>1607.828013325335</v>
       </c>
       <c r="S21">
-        <v>0.003971645777567395</v>
+        <v>0.006894598503052513</v>
       </c>
       <c r="T21">
-        <v>0.003223549090125653</v>
+        <v>0.005726584529679774</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H22">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I22">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J22">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N22">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O22">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P22">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q22">
-        <v>273.1190174118315</v>
+        <v>273.8605187355925</v>
       </c>
       <c r="R22">
-        <v>1638.714104470989</v>
+        <v>1643.163112413555</v>
       </c>
       <c r="S22">
-        <v>0.00546630439043708</v>
+        <v>0.007046120506189522</v>
       </c>
       <c r="T22">
-        <v>0.004436674751728738</v>
+        <v>0.005852437189364935</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H23">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I23">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J23">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N23">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O23">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P23">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q23">
-        <v>87.572847860181</v>
+        <v>146.140931909205</v>
       </c>
       <c r="R23">
-        <v>350.291391440724</v>
+        <v>584.5637276368201</v>
       </c>
       <c r="S23">
-        <v>0.001752715161607961</v>
+        <v>0.003760040409889383</v>
       </c>
       <c r="T23">
-        <v>0.0009483832279912508</v>
+        <v>0.002082034627804184</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H24">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I24">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J24">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N24">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O24">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P24">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q24">
-        <v>39.943129633434</v>
+        <v>144.7391040131409</v>
       </c>
       <c r="R24">
-        <v>239.658777800604</v>
+        <v>868.4346240788451</v>
       </c>
       <c r="S24">
-        <v>0.0007994364762736554</v>
+        <v>0.003723972968221595</v>
       </c>
       <c r="T24">
-        <v>0.0006488551270762139</v>
+        <v>0.003093094685545755</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H25">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I25">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J25">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N25">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O25">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P25">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q25">
-        <v>270.2800377957946</v>
+        <v>344.3066603332009</v>
       </c>
       <c r="R25">
-        <v>1621.680226774767</v>
+        <v>2065.839961999205</v>
       </c>
       <c r="S25">
-        <v>0.005409484009027667</v>
+        <v>0.008858619822208409</v>
       </c>
       <c r="T25">
-        <v>0.004390557021434802</v>
+        <v>0.007357880985486426</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H26">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I26">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J26">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N26">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O26">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P26">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q26">
-        <v>688.4917612266166</v>
+        <v>248.580084740706</v>
       </c>
       <c r="R26">
-        <v>4130.9505673597</v>
+        <v>1491.480508444236</v>
       </c>
       <c r="S26">
-        <v>0.01377972714180458</v>
+        <v>0.00639568361517961</v>
       </c>
       <c r="T26">
-        <v>0.01118418645011958</v>
+        <v>0.005312190815926182</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H27">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I27">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J27">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P27">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q27">
-        <v>2675.783342891956</v>
+        <v>703.8453714121989</v>
       </c>
       <c r="R27">
-        <v>24082.05008602761</v>
+        <v>6334.60834270979</v>
       </c>
       <c r="S27">
-        <v>0.0535541112212389</v>
+        <v>0.01810914303234147</v>
       </c>
       <c r="T27">
-        <v>0.06520003903977936</v>
+        <v>0.0225619095054305</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H28">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I28">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J28">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N28">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O28">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P28">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q28">
-        <v>3682.767057858676</v>
+        <v>719.3137210960668</v>
       </c>
       <c r="R28">
-        <v>33144.90352072808</v>
+        <v>6473.823489864602</v>
       </c>
       <c r="S28">
-        <v>0.07370825337649245</v>
+        <v>0.01850712612390802</v>
       </c>
       <c r="T28">
-        <v>0.08973692006292401</v>
+        <v>0.02305775066591943</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H29">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I29">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J29">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N29">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O29">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P29">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q29">
-        <v>1180.841972553073</v>
+        <v>383.849333308062</v>
       </c>
       <c r="R29">
-        <v>7085.051835318439</v>
+        <v>2303.095999848372</v>
       </c>
       <c r="S29">
-        <v>0.02363380521849967</v>
+        <v>0.009876007944468997</v>
       </c>
       <c r="T29">
-        <v>0.01918215661089599</v>
+        <v>0.008202913379909098</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H30">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I30">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J30">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N30">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O30">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P30">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q30">
-        <v>538.5975806290265</v>
+        <v>380.1673347311597</v>
       </c>
       <c r="R30">
-        <v>4847.378225661239</v>
+        <v>3421.506012580437</v>
       </c>
       <c r="S30">
-        <v>0.01077968992262381</v>
+        <v>0.009781274297588264</v>
       </c>
       <c r="T30">
-        <v>0.01312385151698778</v>
+        <v>0.01218634284106406</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H31">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I31">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J31">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N31">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O31">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P31">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q31">
-        <v>3644.485942515808</v>
+        <v>904.3454170973434</v>
       </c>
       <c r="R31">
-        <v>32800.37348264227</v>
+        <v>8139.108753876091</v>
       </c>
       <c r="S31">
-        <v>0.07294208106504914</v>
+        <v>0.02326778177996619</v>
       </c>
       <c r="T31">
-        <v>0.0888041351939728</v>
+        <v>0.02898898009553271</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H32">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I32">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J32">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N32">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O32">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P32">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q32">
-        <v>377.5036751233884</v>
+        <v>646.8110476429559</v>
       </c>
       <c r="R32">
-        <v>2265.02205074033</v>
+        <v>3880.866285857736</v>
       </c>
       <c r="S32">
-        <v>0.007555497293041003</v>
+        <v>0.01664171457597783</v>
       </c>
       <c r="T32">
-        <v>0.006132348600168149</v>
+        <v>0.01382244161076934</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H33">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I33">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J33">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P33">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q33">
-        <v>1467.146163050714</v>
+        <v>1831.42170273474</v>
       </c>
       <c r="R33">
-        <v>13204.31546745643</v>
+        <v>16482.79532461266</v>
       </c>
       <c r="S33">
-        <v>0.02936400250885502</v>
+        <v>0.04712040302376982</v>
       </c>
       <c r="T33">
-        <v>0.03574952634415574</v>
+        <v>0.0587066029012555</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H34">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I34">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J34">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N34">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O34">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P34">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q34">
-        <v>2019.280661380922</v>
+        <v>1871.670701260775</v>
       </c>
       <c r="R34">
-        <v>18173.5259524283</v>
+        <v>16845.03631134698</v>
       </c>
       <c r="S34">
-        <v>0.04041462527740137</v>
+        <v>0.04815596410127473</v>
       </c>
       <c r="T34">
-        <v>0.04920322802070143</v>
+        <v>0.05999679290507209</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H35">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I35">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J35">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N35">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O35">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P35">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q35">
-        <v>647.4619007561527</v>
+        <v>998.7847162938119</v>
       </c>
       <c r="R35">
-        <v>3884.771404536916</v>
+        <v>5992.708297762872</v>
       </c>
       <c r="S35">
-        <v>0.01295854043516625</v>
+        <v>0.02569759782548703</v>
       </c>
       <c r="T35">
-        <v>0.0105176779523178</v>
+        <v>0.02134416762516531</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H36">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I36">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J36">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N36">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O36">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P36">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q36">
-        <v>295.3159028915373</v>
+        <v>989.2040720542291</v>
       </c>
       <c r="R36">
-        <v>2657.843126023836</v>
+        <v>8902.836648488061</v>
       </c>
       <c r="S36">
-        <v>0.005910561014166751</v>
+        <v>0.02545109871655849</v>
       </c>
       <c r="T36">
-        <v>0.007195877218065707</v>
+        <v>0.03170914189761773</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H37">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I37">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J37">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N37">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O37">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P37">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q37">
-        <v>1998.290923313456</v>
+        <v>2353.127392622746</v>
       </c>
       <c r="R37">
-        <v>17984.6183098211</v>
+        <v>21178.14653360471</v>
       </c>
       <c r="S37">
-        <v>0.03999452894562779</v>
+        <v>0.06054329865212706</v>
       </c>
       <c r="T37">
-        <v>0.04869177714218806</v>
+        <v>0.07542998710154458</v>
       </c>
     </row>
   </sheetData>
